--- a/src/codificador.xlsx
+++ b/src/codificador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9272E54-5E25-40AF-A4B8-0358DC2A2F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5743A21-634E-4744-BF31-903156763601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="44">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -132,82 +132,43 @@
     <t>let Asamblea</t>
   </si>
   <si>
-    <t>A TI, SEÑOR, EN MI CLAMOR IMPLORO.</t>
-  </si>
-  <si>
-    <t>A TI, SEÑOR, EN MI CLAMOR SUPLICO.</t>
-  </si>
-  <si>
-    <t>A TI DERRAMO MI LAMENTO,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A TI MI ANGUSTIA EXPONGO. </t>
-  </si>
-  <si>
-    <t>A TI, YO CLAMO SEÑOR;</t>
-  </si>
-  <si>
-    <t>A TI, YO DIGO: ¡TÚ SOLO ERES MI REFUGIO,</t>
-  </si>
-  <si>
-    <t>TÚ ERES MI PORCIÓN EN ESTA TIERRA,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI ÚNICA FELICIDAD! </t>
-  </si>
-  <si>
-    <t>A TI, SEÑOR, EN MI CLAMOR …</t>
-  </si>
-  <si>
-    <t>A TI, YO CLAMO SEÑOR …</t>
-  </si>
-  <si>
-    <t>Siento que el espíritu en mí se apaga;</t>
-  </si>
-  <si>
-    <t>mas tú conoces mi sendero.</t>
-  </si>
-  <si>
-    <t>Mira, Señor, que en el camino,</t>
-  </si>
-  <si>
-    <t>mira, Señor, que me han tendido un lazo.</t>
-  </si>
-  <si>
-    <t>Mira, Señor, que a la derecha no hay ninguno,</t>
-  </si>
-  <si>
-    <t>ninguno que me conozca.</t>
-  </si>
-  <si>
-    <t>Huye de mí todo consuelo,</t>
-  </si>
-  <si>
-    <t>que no hay nadie que se cuide de mi alma.</t>
-  </si>
-  <si>
-    <t>Escúchame, Señor, que estoy llorando,</t>
-  </si>
-  <si>
-    <t>estoy tan deprimido.</t>
-  </si>
-  <si>
-    <t>¡Líbrame de estos enemigos</t>
-  </si>
-  <si>
-    <t>que son más fuertes que yo!</t>
-  </si>
-  <si>
-    <t>¡Saca mi alma de esta cárcel,</t>
-  </si>
-  <si>
-    <t>y yo daré gracias a tu nombre!</t>
-  </si>
-  <si>
-    <t>En torno a mí los santos harán corro,</t>
-  </si>
-  <si>
-    <t>me felicitarán por tu favor hacia mí.</t>
+    <t>A TI, SEÑOR, LEVANTO MI ALMA,</t>
+  </si>
+  <si>
+    <t>A TI, OH DIOS MÍO.</t>
+  </si>
+  <si>
+    <t>A TI, SEÑOR, LEVANTO MI ALMA ...</t>
+  </si>
+  <si>
+    <t>En ti confío, Señor,</t>
+  </si>
+  <si>
+    <t>¡no triunfen sobre mí mis enemigos!</t>
+  </si>
+  <si>
+    <t>Muéstrame, Señor, tu camino,</t>
+  </si>
+  <si>
+    <t>enséñame, Señor, tu sendero.</t>
+  </si>
+  <si>
+    <t>Acuérdate, Señor, de tu ternura,</t>
+  </si>
+  <si>
+    <t>de tu inmensa compasión, que son de siempre.</t>
+  </si>
+  <si>
+    <t>De mis pecados, Señor, no te acuerdes,</t>
+  </si>
+  <si>
+    <t>acuérdate, Señor, que eres misericordia.</t>
+  </si>
+  <si>
+    <t>Rocíame, Señor, de tu misericordia.</t>
+  </si>
+  <si>
+    <t>Sumérgeme, Señor, en tu misericordia.</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1790,7 @@
   <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -1876,7 +1837,7 @@
       </c>
       <c r="I3" t="str">
         <f>_xlfn.CONCAT(B3,C3," ",D3," ",E3,F3,G3,H3)</f>
-        <v>let Cantor1 = "Siento que el espíritu en mí se apaga;";</v>
+        <v>let Cantor1 = "En ti confío, Señor,";</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
@@ -1914,7 +1875,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -1924,7 +1885,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I29" si="0">_xlfn.CONCAT(B4,C4," ",D4," ",E4,F4,G4,H4)</f>
-        <v>let Cantor2 = "mas tú conoces mi sendero.";</v>
+        <v>let Cantor2 = "¡no triunfen sobre mí mis enemigos!";</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
@@ -1943,7 +1904,7 @@
         <v>29</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O29" si="1">_xlfn.CONCAT("document.getElementById",J4,L4,"c",M4,L4,K4,".textContent = Cantor",M4,N4)</f>
+        <f t="shared" ref="O4:O18" si="1">_xlfn.CONCAT("document.getElementById",J4,L4,"c",M4,L4,K4,".textContent = Cantor",M4,N4)</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
@@ -1962,7 +1923,7 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -1972,7 +1933,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor3 = "Mira, Señor, que en el camino,";</v>
+        <v>let Cantor3 = "Muéstrame, Señor, tu camino,";</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
@@ -2010,7 +1971,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2020,7 +1981,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor4 = "mira, Señor, que me han tendido un lazo.";</v>
+        <v>let Cantor4 = "enséñame, Señor, tu sendero.";</v>
       </c>
       <c r="J6" t="s">
         <v>27</v>
@@ -2058,7 +2019,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -2068,7 +2029,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor5 = "Mira, Señor, que a la derecha no hay ninguno,";</v>
+        <v>let Cantor5 = "Acuérdate, Señor, de tu ternura,";</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
@@ -2106,7 +2067,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -2116,7 +2077,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor6 = "ninguno que me conozca.";</v>
+        <v>let Cantor6 = "de tu inmensa compasión, que son de siempre.";</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
@@ -2154,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -2164,7 +2125,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor7 = "Huye de mí todo consuelo,";</v>
+        <v>let Cantor7 = "De mis pecados, Señor, no te acuerdes,";</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
@@ -2202,7 +2163,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -2212,7 +2173,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor8 = "que no hay nadie que se cuide de mi alma.";</v>
+        <v>let Cantor8 = "acuérdate, Señor, que eres misericordia.";</v>
       </c>
       <c r="J10" t="s">
         <v>27</v>
@@ -2250,7 +2211,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -2260,7 +2221,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor9 = "Escúchame, Señor, que estoy llorando,";</v>
+        <v>let Cantor9 = "Rocíame, Señor, de tu misericordia.";</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -2298,7 +2259,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -2308,7 +2269,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor10 = "estoy tan deprimido.";</v>
+        <v>let Cantor10 = "Sumérgeme, Señor, en tu misericordia.";</v>
       </c>
       <c r="J12" t="s">
         <v>27</v>
@@ -2345,9 +2306,6 @@
       <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
       <c r="G13" t="s">
         <v>26</v>
       </c>
@@ -2356,7 +2314,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor11 = "¡Líbrame de estos enemigos";</v>
+        <v>let Cantor11 = "";</v>
       </c>
       <c r="J13" t="s">
         <v>27</v>
@@ -2393,9 +2351,6 @@
       <c r="E14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
-        <v>52</v>
-      </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
@@ -2404,7 +2359,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor12 = "que son más fuertes que yo!";</v>
+        <v>let Cantor12 = "";</v>
       </c>
       <c r="J14" t="s">
         <v>27</v>
@@ -2441,9 +2396,6 @@
       <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
       <c r="G15" t="s">
         <v>26</v>
       </c>
@@ -2452,7 +2404,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor13 = "¡Saca mi alma de esta cárcel,";</v>
+        <v>let Cantor13 = "";</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
@@ -2489,9 +2441,6 @@
       <c r="E16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
       <c r="G16" t="s">
         <v>26</v>
       </c>
@@ -2500,7 +2449,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor14 = "y yo daré gracias a tu nombre!";</v>
+        <v>let Cantor14 = "";</v>
       </c>
       <c r="J16" t="s">
         <v>27</v>
@@ -2537,9 +2486,6 @@
       <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
       <c r="G17" t="s">
         <v>26</v>
       </c>
@@ -2548,7 +2494,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor15 = "En torno a mí los santos harán corro,";</v>
+        <v>let Cantor15 = "";</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -2585,9 +2531,6 @@
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
       <c r="G18" t="s">
         <v>26</v>
       </c>
@@ -2596,7 +2539,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>let Cantor16 = "me felicitarán por tu favor hacia mí.";</v>
+        <v>let Cantor16 = "";</v>
       </c>
       <c r="J18" t="s">
         <v>27</v>
@@ -2644,7 +2587,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea1 = "A TI, SEÑOR, EN MI CLAMOR IMPLORO.";</v>
+        <v>let Asamblea1 = "A TI, SEÑOR, LEVANTO MI ALMA,";</v>
       </c>
       <c r="J20" t="s">
         <v>27</v>
@@ -2692,7 +2635,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea2 = "A TI, SEÑOR, EN MI CLAMOR SUPLICO.";</v>
+        <v>let Asamblea2 = "A TI, OH DIOS MÍO.";</v>
       </c>
       <c r="J21" t="s">
         <v>27</v>
@@ -2740,7 +2683,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea3 = "A TI DERRAMO MI LAMENTO,";</v>
+        <v>let Asamblea3 = "A TI, SEÑOR, LEVANTO MI ALMA ...";</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
@@ -2778,7 +2721,7 @@
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -2788,7 +2731,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea4 = "A TI MI ANGUSTIA EXPONGO. ";</v>
+        <v>let Asamblea4 = "A TI, SEÑOR, LEVANTO MI ALMA ...";</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
@@ -2825,9 +2768,6 @@
       <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
       <c r="G24" t="s">
         <v>26</v>
       </c>
@@ -2836,7 +2776,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea5 = "A TI, YO CLAMO SEÑOR;";</v>
+        <v>let Asamblea5 = "";</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
@@ -2873,9 +2813,6 @@
       <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
       <c r="G25" t="s">
         <v>26</v>
       </c>
@@ -2884,7 +2821,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea6 = "A TI, YO DIGO: ¡TÚ SOLO ERES MI REFUGIO,";</v>
+        <v>let Asamblea6 = "";</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
@@ -2921,9 +2858,6 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
-        <v>37</v>
-      </c>
       <c r="G26" t="s">
         <v>26</v>
       </c>
@@ -2932,7 +2866,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea7 = "TÚ ERES MI PORCIÓN EN ESTA TIERRA,";</v>
+        <v>let Asamblea7 = "";</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
@@ -2969,9 +2903,6 @@
       <c r="E27" t="s">
         <v>26</v>
       </c>
-      <c r="F27" t="s">
-        <v>38</v>
-      </c>
       <c r="G27" t="s">
         <v>26</v>
       </c>
@@ -2980,7 +2911,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea8 = "MI ÚNICA FELICIDAD! ";</v>
+        <v>let Asamblea8 = "";</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
@@ -3017,9 +2948,6 @@
       <c r="E28" t="s">
         <v>26</v>
       </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
       <c r="G28" t="s">
         <v>26</v>
       </c>
@@ -3028,7 +2956,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea9 = "A TI, SEÑOR, EN MI CLAMOR …";</v>
+        <v>let Asamblea9 = "";</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
@@ -3065,9 +2993,6 @@
       <c r="E29" t="s">
         <v>26</v>
       </c>
-      <c r="F29" t="s">
-        <v>40</v>
-      </c>
       <c r="G29" t="s">
         <v>26</v>
       </c>
@@ -3076,7 +3001,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea10 = "A TI, YO CLAMO SEÑOR …";</v>
+        <v>let Asamblea10 = "";</v>
       </c>
       <c r="J29" t="s">
         <v>27</v>
